--- a/input/Commands/CommonCommandList.xlsx
+++ b/input/Commands/CommonCommandList.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52da370e166b9526/Development/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A659380-3C2A-481E-B02E-74682BF83FA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25140" windowHeight="11790" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="10200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="2" r:id="rId1"/>
@@ -19,17 +20,22 @@
   <definedNames>
     <definedName name="Project_Name">Notes!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
   <si>
     <t>Name of project</t>
   </si>
@@ -311,12 +317,18 @@
   </si>
   <si>
     <t>sudo systemctl status mssql-server</t>
+  </si>
+  <si>
+    <t>Edit share drive mount file</t>
+  </si>
+  <si>
+    <t>sudo nano /etc/fstab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -670,7 +682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -710,7 +722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:F322"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4043,18 +4055,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F12" r:id="rId1"/>
+    <hyperlink ref="F12" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F322"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B3:F323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4098,7 +4110,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
-        <f t="shared" ref="B5:C68" si="0">ROW()-3</f>
+        <f t="shared" ref="B5:B68" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -4141,8 +4153,12 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
@@ -4151,9 +4167,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -4164,11 +4178,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>77</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -4176,13 +4189,12 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>75</v>
+      <c r="C11" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>77</v>
+      </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -4191,12 +4203,12 @@
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -4204,8 +4216,12 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="3"/>
     </row>
@@ -4214,11 +4230,9 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -4227,11 +4241,9 @@
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>81</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
@@ -4241,10 +4253,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -4255,10 +4267,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -4269,10 +4281,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -4282,8 +4294,12 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
@@ -4292,9 +4308,8 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
@@ -4304,10 +4319,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -4318,10 +4330,10 @@
         <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -4331,8 +4343,12 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
@@ -4441,9 +4457,9 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="4"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -4451,9 +4467,9 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -7318,7 +7334,13 @@
       <c r="E322" s="3"/>
       <c r="F322" s="3"/>
     </row>
+    <row r="323" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C323" s="3"/>
+      <c r="D323" s="3"/>
+      <c r="E323" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/input/Commands/CommonCommandList.xlsx
+++ b/input/Commands/CommonCommandList.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A659380-3C2A-481E-B02E-74682BF83FA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="10200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="2" r:id="rId1"/>
     <sheet name="Windows" sheetId="1" r:id="rId2"/>
     <sheet name="Ubuntu" sheetId="3" r:id="rId3"/>
+    <sheet name="Other" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Project_Name">Notes!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="157">
   <si>
     <t>Name of project</t>
   </si>
@@ -323,12 +323,195 @@
   </si>
   <si>
     <t>sudo nano /etc/fstab</t>
+  </si>
+  <si>
+    <t>## Git</t>
+  </si>
+  <si>
+    <t>Clone repository</t>
+  </si>
+  <si>
+    <t>git clone REPO_NAME</t>
+  </si>
+  <si>
+    <t>Check repository status</t>
+  </si>
+  <si>
+    <t>git status</t>
+  </si>
+  <si>
+    <t>Discard file changes</t>
+  </si>
+  <si>
+    <t>Track file changes</t>
+  </si>
+  <si>
+    <t>git add FILE_NAME</t>
+  </si>
+  <si>
+    <t>git checkout -- FILE_NAME</t>
+  </si>
+  <si>
+    <t>Commit file changes</t>
+  </si>
+  <si>
+    <t>git commit -m MESSAGE</t>
+  </si>
+  <si>
+    <t>Upload file changes to GitHub</t>
+  </si>
+  <si>
+    <t>Download files to local</t>
+  </si>
+  <si>
+    <t>git pull</t>
+  </si>
+  <si>
+    <t>git push</t>
+  </si>
+  <si>
+    <t>## Nginx</t>
+  </si>
+  <si>
+    <t>Edit enabled-site configuration</t>
+  </si>
+  <si>
+    <t>sudo nano /etc/nginx/sites-available/home</t>
+  </si>
+  <si>
+    <t>Restart nginx</t>
+  </si>
+  <si>
+    <t>sudo systemctl restart nginx</t>
+  </si>
+  <si>
+    <t>Check nginx status</t>
+  </si>
+  <si>
+    <t>sudo systemctl status nginx</t>
+  </si>
+  <si>
+    <t>Set mark for copying</t>
+  </si>
+  <si>
+    <t>Alt+Shift+A</t>
+  </si>
+  <si>
+    <t>Copy selected text</t>
+  </si>
+  <si>
+    <t>Alt+Shift+6</t>
+  </si>
+  <si>
+    <t>Paste copied text</t>
+  </si>
+  <si>
+    <t>Ctrl+U</t>
+  </si>
+  <si>
+    <t>Exit and Save</t>
+  </si>
+  <si>
+    <t>Ctrl+X (Enter: Y)</t>
+  </si>
+  <si>
+    <t>## nano editor</t>
+  </si>
+  <si>
+    <t>Install packages for new shiny app</t>
+  </si>
+  <si>
+    <t>Check file system size</t>
+  </si>
+  <si>
+    <t>df -h</t>
+  </si>
+  <si>
+    <t>sh ~/Projects/Utils/Ubuntu/install_r_pkgs.bash ~/ShinyApps/APP_NAME/README.md</t>
+  </si>
+  <si>
+    <t>sh ~/Projects/Utils/Ubuntu/ubuntu_cleanup.bash</t>
+  </si>
+  <si>
+    <t>Cleanup Ubuntu disk space</t>
+  </si>
+  <si>
+    <t>Modify index page for new shiny app</t>
+  </si>
+  <si>
+    <t>nano ~/ShinyApps/home/global.R</t>
+  </si>
+  <si>
+    <t>## RStudio</t>
+  </si>
+  <si>
+    <t>Delay package installation time</t>
+  </si>
+  <si>
+    <t>trace(utils:::unpackPkgZip, edit = TRUE)</t>
+  </si>
+  <si>
+    <t>Pull all repositories</t>
+  </si>
+  <si>
+    <t>sh ~/Projects/Utils/Ubuntu/git_pull_all.bash</t>
+  </si>
+  <si>
+    <t>## FIFA 19</t>
+  </si>
+  <si>
+    <t>Buttom mapping</t>
+  </si>
+  <si>
+    <t>LB (L1) : LB | LT (L2) : RT | RB (R1) : LT | RT (L2) : RB</t>
+  </si>
+  <si>
+    <t>Fake shot standing</t>
+  </si>
+  <si>
+    <t>Fake shot moving</t>
+  </si>
+  <si>
+    <t>Press X, Release X and Press O while holding D</t>
+  </si>
+  <si>
+    <t>Fake shot speed boost</t>
+  </si>
+  <si>
+    <t>Drag back</t>
+  </si>
+  <si>
+    <t>Drag back and move forward</t>
+  </si>
+  <si>
+    <t>Drag back and spin left/right</t>
+  </si>
+  <si>
+    <t>Press right analog D, Press right analog L/R</t>
+  </si>
+  <si>
+    <t>La Croqueta</t>
+  </si>
+  <si>
+    <t>Press X, Release X and Press O (optional: while holding LT)</t>
+  </si>
+  <si>
+    <t>Press DD while holding LB</t>
+  </si>
+  <si>
+    <t>Press DD, Press DU while holding LB</t>
+  </si>
+  <si>
+    <t>Press X, Release X and Press O while holding D and LB</t>
+  </si>
+  <si>
+    <t>Flick right analog L/R while holding LB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -682,7 +865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -722,11 +905,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F322"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1389,9 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1216,8 +1401,12 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
@@ -4055,18 +4244,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F12" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B3:F323"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F334"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4074,7 +4264,7 @@
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4110,7 +4300,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
-        <f t="shared" ref="B5:B68" si="0">ROW()-3</f>
+        <f t="shared" ref="B5:B70" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -4167,8 +4357,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
+      <c r="C9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
@@ -4177,12 +4371,10 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
@@ -4190,11 +4382,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>77</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -4202,13 +4393,12 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>75</v>
+      <c r="C12" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>77</v>
+      </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -4217,12 +4407,12 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -4230,8 +4420,12 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="3"/>
     </row>
@@ -4240,11 +4434,9 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
@@ -4253,12 +4445,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="3"/>
+        <v>111</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -4267,12 +4457,12 @@
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="E17" s="4"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -4281,12 +4471,12 @@
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="3"/>
+        <v>117</v>
+      </c>
+      <c r="E18" s="4"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -4295,12 +4485,12 @@
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="E19" s="4"/>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -4319,8 +4509,9 @@
         <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>88</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
@@ -4330,10 +4521,10 @@
         <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -4344,10 +4535,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -4357,8 +4548,12 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
@@ -4367,8 +4562,12 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
@@ -4377,8 +4576,12 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
@@ -4387,8 +4590,12 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
@@ -4397,8 +4604,12 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
@@ -4417,8 +4628,9 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
@@ -4427,8 +4639,12 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
@@ -4437,8 +4653,12 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
@@ -4452,24 +4672,30 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="7">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="6">
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="4"/>
+      <c r="C35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -4477,8 +4703,12 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
@@ -4487,8 +4717,12 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
@@ -4497,8 +4731,12 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
@@ -4507,8 +4745,12 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
@@ -4517,8 +4759,12 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
@@ -4527,29 +4773,36 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
+      <c r="F41" s="4"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="6">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
+      <c r="F42" s="4"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
+      <c r="E43" s="4"/>
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -4557,7 +4810,9 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -4567,8 +4822,12 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
@@ -4577,8 +4836,12 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="C46" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
@@ -4587,8 +4850,12 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
@@ -4597,8 +4864,12 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
+      <c r="C48" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
@@ -4627,8 +4898,6 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
@@ -4804,7 +5073,7 @@
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="6">
-        <f t="shared" ref="B69:B132" si="1">ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="C69" s="3"/>
@@ -4814,7 +5083,7 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="C70" s="3"/>
@@ -4824,7 +5093,7 @@
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B71:B134" si="1">ROW()-3</f>
         <v>68</v>
       </c>
       <c r="C71" s="3"/>
@@ -5444,7 +5713,7 @@
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B133" s="6">
-        <f t="shared" ref="B133:B196" si="2">ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="C133" s="3"/>
@@ -5454,7 +5723,7 @@
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B134" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>131</v>
       </c>
       <c r="C134" s="3"/>
@@ -5464,7 +5733,7 @@
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B135" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B135:B198" si="2">ROW()-3</f>
         <v>132</v>
       </c>
       <c r="C135" s="3"/>
@@ -6084,7 +6353,7 @@
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B197" s="6">
-        <f t="shared" ref="B197:B260" si="3">ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>194</v>
       </c>
       <c r="C197" s="3"/>
@@ -6094,7 +6363,7 @@
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B198" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>195</v>
       </c>
       <c r="C198" s="3"/>
@@ -6104,7 +6373,7 @@
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B199" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B199:B262" si="3">ROW()-3</f>
         <v>196</v>
       </c>
       <c r="C199" s="3"/>
@@ -6724,7 +6993,7 @@
     </row>
     <row r="261" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B261" s="6">
-        <f t="shared" ref="B261:B320" si="4">ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>258</v>
       </c>
       <c r="C261" s="3"/>
@@ -6734,7 +7003,7 @@
     </row>
     <row r="262" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B262" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>259</v>
       </c>
       <c r="C262" s="3"/>
@@ -6744,7 +7013,7 @@
     </row>
     <row r="263" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B263" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="B263:B322" si="4">ROW()-3</f>
         <v>260</v>
       </c>
       <c r="C263" s="3"/>
@@ -7322,25 +7591,247 @@
       <c r="E320" s="3"/>
       <c r="F320" s="3"/>
     </row>
-    <row r="321" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B321" s="6">
+        <f t="shared" si="4"/>
+        <v>318</v>
+      </c>
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
       <c r="F321" s="3"/>
     </row>
-    <row r="322" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B322" s="6">
+        <f t="shared" si="4"/>
+        <v>319</v>
+      </c>
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
       <c r="F322" s="3"/>
     </row>
-    <row r="323" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
+      <c r="F323" s="3"/>
+    </row>
+    <row r="324" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C324" s="3"/>
+      <c r="D324" s="3"/>
+      <c r="E324" s="3"/>
+      <c r="F324" s="3"/>
+    </row>
+    <row r="325" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C325" s="3"/>
+      <c r="D325" s="3"/>
+      <c r="E325" s="3"/>
+      <c r="F325" s="3"/>
+    </row>
+    <row r="326" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C326" s="3"/>
+      <c r="D326" s="3"/>
+      <c r="E326" s="3"/>
+      <c r="F326" s="3"/>
+    </row>
+    <row r="327" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C327" s="3"/>
+      <c r="D327" s="3"/>
+      <c r="E327" s="3"/>
+      <c r="F327" s="3"/>
+    </row>
+    <row r="328" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C328" s="3"/>
+      <c r="D328" s="3"/>
+      <c r="E328" s="3"/>
+      <c r="F328" s="3"/>
+    </row>
+    <row r="329" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C329" s="3"/>
+      <c r="D329" s="3"/>
+      <c r="E329" s="3"/>
+      <c r="F329" s="3"/>
+    </row>
+    <row r="330" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C330" s="3"/>
+      <c r="D330" s="3"/>
+      <c r="E330" s="3"/>
+      <c r="F330" s="3"/>
+    </row>
+    <row r="331" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C331" s="3"/>
+      <c r="D331" s="3"/>
+      <c r="E331" s="3"/>
+    </row>
+    <row r="332" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C332" s="3"/>
+      <c r="D332" s="3"/>
+    </row>
+    <row r="333" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C333" s="3"/>
+      <c r="D333" s="3"/>
+    </row>
+    <row r="334" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C334" s="3"/>
+      <c r="D334" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <f t="shared" ref="B5:B13" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input/Commands/CommonCommandList.xlsx
+++ b/input/Commands/CommonCommandList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\DocRepo\input\Commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="162">
   <si>
     <t>Name of project</t>
   </si>
@@ -463,9 +463,6 @@
     <t>Buttom mapping</t>
   </si>
   <si>
-    <t>LB (L1) : LB | LT (L2) : RT | RB (R1) : LT | RT (L2) : RB</t>
-  </si>
-  <si>
     <t>Fake shot standing</t>
   </si>
   <si>
@@ -506,6 +503,24 @@
   </si>
   <si>
     <t>Flick right analog L/R while holding LB</t>
+  </si>
+  <si>
+    <t>LB (L1) : LB | LT (L2) : RT | RB (R1) : LT | RT (R2) : RB</t>
+  </si>
+  <si>
+    <t>## FIFA 20</t>
+  </si>
+  <si>
+    <t>Step over and exit</t>
+  </si>
+  <si>
+    <t>Press right analog D towards the running direction, then slide L/R</t>
+  </si>
+  <si>
+    <t>## FIFA 21</t>
+  </si>
+  <si>
+    <t>Wait and see</t>
   </si>
 </sst>
 </file>
@@ -7684,10 +7699,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F13"/>
+  <dimension ref="B3:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7695,7 +7710,7 @@
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -7731,14 +7746,14 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
-        <f t="shared" ref="B5:B13" si="0">ROW()-3</f>
+        <f t="shared" ref="B5:B19" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>141</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -7747,10 +7762,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -7759,10 +7774,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -7771,10 +7786,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -7783,10 +7798,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -7795,10 +7810,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -7807,10 +7822,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -7819,10 +7834,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -7830,6 +7845,59 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
